--- a/main/data/Classification_perso.xlsx
+++ b/main/data/Classification_perso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/SVAR3A/main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1ACD42-08D8-0E4C-B401-1AC00AF45D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1163DFC-261E-B740-9FCC-14E4AE4397EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,42 +18,6 @@
     <sheet name="RESULTS" sheetId="4" r:id="rId3"/>
     <sheet name="HH_CONS_EXP" sheetId="5" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">data!$A$2:$A$266</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">data!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">data!$F$2:$F$266</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">data!$G$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">data!$G$2:$G$266</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">data!$H$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">data!$H$2:$H$266</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">RESULTS!$A$3:$A$37</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">RESULTS!$C$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">RESULTS!$C$3:$C$37</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">RESULTS!$D$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">RESULTS!$D$3:$D$37</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">data!$B$2:$B$266</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">HH_CONS_EXP!$B$2:$B$36</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">HH_CONS_EXP!$C$2:$C$36</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">HH_CONS_EXP!$H$2:$H$36</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">HH_CONS_EXP!$B$2:$B$36</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">HH_CONS_EXP!$J$2:$J$36</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">HH_CONS_EXP!$B$2:$B$36</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">HH_CONS_EXP!$C$2:$C$36</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">HH_CONS_EXP!$H$2:$H$36</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">HH_CONS_EXP!$B$2:$B$36</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">HH_CONS_EXP!$C$2:$C$36</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">data!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">HH_CONS_EXP!$H$2:$H$36</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">HH_CONS_EXP!$B$2:$B$36</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">HH_CONS_EXP!$C$2:$C$36</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">HH_CONS_EXP!$H$2:$H$36</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">data!$C$2:$C$266</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">data!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">data!$D$2:$D$266</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">data!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">data!$E$2:$E$266</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">data!$F$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -91,7 +55,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -627,9 +591,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,12 +676,6 @@
       <color rgb="FFFF0000"/>
       <name val="Allianz Neo PPT"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -852,7 +810,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -870,7 +828,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -879,7 +837,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -897,22 +855,22 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11096,7 +11054,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -14020,7 +13978,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -14492,7 +14450,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -42006,8 +41964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2754DBC1-4BD4-154D-8004-42164EE27B6C}">
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/main/data/Classification_perso.xlsx
+++ b/main/data/Classification_perso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/SVAR3A/main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1163DFC-261E-B740-9FCC-14E4AE4397EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186252D1-FD56-2843-A6DE-67740E2189C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11235,9 +11235,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5128911827612259E-2"/>
+          <c:x val="2.3415423426658113E-2"/>
           <c:y val="5.0164771070282881E-2"/>
-          <c:w val="0.91038066930456008"/>
+          <c:w val="0.97658457657334186"/>
           <c:h val="0.83615734846686651"/>
         </c:manualLayout>
       </c:layout>
@@ -13284,7 +13284,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13323,9 +13323,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1316358267716535"/>
+          <c:x val="6.6793083111748128E-2"/>
           <c:y val="3.758056284631088E-2"/>
-          <c:w val="0.70814434549789151"/>
+          <c:w val="0.85495803383765689"/>
           <c:h val="3.4194675481262732E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -14159,9 +14159,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.244210140807064E-2"/>
+          <c:x val="3.2617746015312525E-2"/>
           <c:y val="5.7682716049382715E-2"/>
-          <c:w val="0.88461588874218144"/>
+          <c:w val="0.96008701818533781"/>
           <c:h val="0.83197623456790104"/>
         </c:manualLayout>
       </c:layout>
@@ -14537,7 +14537,7 @@
           <c:yMode val="edge"/>
           <c:x val="9.3296238801503728E-2"/>
           <c:y val="1.7046966840412556E-2"/>
-          <c:w val="0.51734733158355206"/>
+          <c:w val="0.25174143929683207"/>
           <c:h val="0.12980592214705555"/>
         </c:manualLayout>
       </c:layout>
@@ -18176,6 +18176,124 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>715818</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A29E2A9-851E-CABF-0834-DFD7ACCC8FCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="22582909" y="900545"/>
+          <a:ext cx="46182" cy="9421091"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>267854</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>314036</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525EB8AD-C290-8740-B2F8-ABC6B82A1EF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="24628763" y="868218"/>
+          <a:ext cx="46182" cy="9421091"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -41964,8 +42082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2754DBC1-4BD4-154D-8004-42164EE27B6C}">
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="110" workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/main/data/Classification_perso.xlsx
+++ b/main/data/Classification_perso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/SVAR3A/main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186252D1-FD56-2843-A6DE-67740E2189C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3DF10A-05A5-AE44-832C-09B7F6416B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,42 @@
     <sheet name="HH_CONS nul" sheetId="3" r:id="rId2"/>
     <sheet name="RESULTS" sheetId="4" r:id="rId3"/>
     <sheet name="HH_CONS_EXP" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">RESULTS!$G$22:$G$37</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">RESULTS!$H$22:$H$37</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$3:$D$13</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$3:$B$13</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$3:$C$13</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$D$3:$D$13</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$3:$B$13</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$3:$C$13</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">RESULTS!$I$22:$I$37</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$D$3:$D$13</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$3:$B$13</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$3:$C$13</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$D$3:$D$13</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$3:$B$13</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$C$3:$C$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">RESULTS!$J$22:$J$37</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$D$3:$D$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">RESULTS!$K$22:$K$37</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">RESULTS!$L$22:$L$37</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">RESULTS!$M$22:$M$37</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$3:$B$13</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$3:$C$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -77,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="176">
   <si>
     <t>dem_pers</t>
   </si>
@@ -580,10 +615,31 @@
     <t>REAL</t>
   </si>
   <si>
-    <t>QoQ</t>
+    <t>Persistent demand</t>
   </si>
   <si>
-    <t>YoY</t>
+    <t>Persistent supply</t>
+  </si>
+  <si>
+    <t>Transitory demand</t>
+  </si>
+  <si>
+    <t>Transitory supply</t>
+  </si>
+  <si>
+    <t>Ambiguous demand</t>
+  </si>
+  <si>
+    <t>Ambiguous supply</t>
+  </si>
+  <si>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>QoQ difference of Real FCE of households growth (%)</t>
   </si>
 </sst>
 </file>
@@ -698,7 +754,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,6 +776,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,12 +935,22 @@
     <xf numFmtId="2" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4861E1"/>
+      <color rgb="FFFFA500"/>
+      <color rgb="FFA52A2A"/>
+      <color rgb="FF3CB371"/>
+      <color rgb="FFFFD579"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6491,6 +6563,883 @@
           <c:y val="3.758056284631088E-2"/>
           <c:w val="0.70814434549789151"/>
           <c:h val="3.4194675481262732E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0629523582279482E-2"/>
+          <c:y val="2.8750000000000001E-2"/>
+          <c:w val="0.95788057742782151"/>
+          <c:h val="0.9425"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HH_CONS_EXP!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real FCE of households growth (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="003781"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>HH_CONS_EXP!$B$21:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HH_CONS_EXP!$K$26:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1.0958890964836376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.957520263877221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0100072898775014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.675948787263831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0096142064826719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8488517913484417</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1573170629364249E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.51041463607253146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.69624729643489314</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.4369437217464207</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.9300700262495871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B283-44FA-90D1-FCC562917EB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="24644775"/>
+        <c:axId val="24649815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="24644775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24649815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="24649815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0&quot;%&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24644775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72965572692957059"/>
+          <c:y val="3.4418007380751847E-2"/>
+          <c:w val="0.25345840292690686"/>
+          <c:h val="8.5694079906678336E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId4"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9753141784429272E-2"/>
+          <c:y val="0.10595854828491266"/>
+          <c:w val="0.91482087917818222"/>
+          <c:h val="0.83197623456790104"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QoQ difference of Real FCE of households growth (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.5671169530423725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.05340936036086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11.94751297399972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6659414973863296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6663345807811591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.16076241513423017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.8372786207190774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.52198780670189571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.18583266036236168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7406964253115276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.49312630450316641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1B9-4341-A3AC-0C29ED37CB22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="24644775"/>
+        <c:axId val="24649815"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Persistent demand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="003781"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.26920207073922447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71610863399253388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80306504696439818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0924494268839047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2823660429210453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3074713175370072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4705810085633988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2114624292043124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91789795200865854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45114750010520194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15058840923030808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C1B9-4341-A3AC-0C29ED37CB22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1876538608"/>
+        <c:axId val="1876389696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="24644775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24649815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="24649815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_ ;[Red]\-#,##0\ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24644775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1876389696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+          <c:min val="-1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876538608"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1876538608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1876389696"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8046806649168858E-2"/>
+          <c:y val="4.1694736074657332E-2"/>
+          <c:w val="0.51734733158355206"/>
+          <c:h val="6.1220924970585587E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7369,7 +8318,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dem_pers</c:v>
+                  <c:v>Persistent demand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7626,7 +8575,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sup_pers</c:v>
+                  <c:v>Persistent supply</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7883,7 +8832,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dem_trans</c:v>
+                  <c:v>Transitory demand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8140,7 +9089,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sup_trans</c:v>
+                  <c:v>Transitory supply</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8397,7 +9346,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dem_abg</c:v>
+                  <c:v>Ambiguous demand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8654,7 +9603,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sup_abg</c:v>
+                  <c:v>Ambiguous supply</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8911,7 +9860,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>unclassified</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9186,7 +10135,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11238,7 +12187,7 @@
           <c:x val="2.3415423426658113E-2"/>
           <c:y val="5.0164771070282881E-2"/>
           <c:w val="0.97658457657334186"/>
-          <c:h val="0.83615734846686651"/>
+          <c:h val="0.85233446259413503"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -11254,14 +12203,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dem_pers</c:v>
+                  <c:v>Persistent demand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00908D"/>
+              <a:srgbClr val="3CB371"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -11511,14 +12460,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sup_pers</c:v>
+                  <c:v>Persistent supply</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="F62459"/>
+              <a:srgbClr val="A52A2A"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -11768,14 +12717,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dem_trans</c:v>
+                  <c:v>Transitory demand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="003781"/>
+              <a:srgbClr val="4861E1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -12025,14 +12974,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sup_trans</c:v>
+                  <c:v>Transitory supply</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FAB600"/>
+              <a:srgbClr val="FFA500"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -12282,7 +13231,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dem_abg</c:v>
+                  <c:v>Ambiguous demand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12539,7 +13488,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sup_abg</c:v>
+                  <c:v>Ambiguous supply</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12796,7 +13745,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>unclassified</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13071,7 +14020,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14185,7 +15134,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="003781"/>
+                <a:srgbClr val="00908D"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -14539,6 +15488,1220 @@
           <c:y val="1.7046966840412556E-2"/>
           <c:w val="0.25174143929683207"/>
           <c:h val="0.12980592214705555"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId4"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4274565403261974E-2"/>
+          <c:y val="4.1771980134028774E-2"/>
+          <c:w val="0.95572543459673798"/>
+          <c:h val="0.94085498748574226"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RESULTS!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Persistent demand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3CB371"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>RESULTS!$B$22:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RESULTS!$G$27:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.26920207073922447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71610863399253388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80306504696439818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0924494268839047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2823660429210453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3074713175370072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4705810085633988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2114624292043124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91789795200865854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45114750010520194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15058840923030808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C27-6F44-AAA3-4A7066EE074C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RESULTS!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transitory demand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4861E1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>RESULTS!$B$22:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RESULTS!$I$27:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.66229961816587279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.147523041250955E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54531247884496237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56989001160276831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84729450338912249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.189447914350124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6735839471945984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1259671654397767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3389090417248064</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0853796372303002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7234776142664003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C27-6F44-AAA3-4A7066EE074C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RESULTS!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Persistent supply</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A52A2A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>RESULTS!$B$22:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RESULTS!$H$27:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.23429461618830119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11335367597020496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2730296615018093E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18898819478052842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9339008205269044E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8122368663945803E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61221178256263042</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82628802081054209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94438348943452521</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.368503092051748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98562245568456974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0C27-6F44-AAA3-4A7066EE074C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RESULTS!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transitory supply</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFA500"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>RESULTS!$B$22:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RESULTS!$J$27:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.53143489826335033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45761801193306523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43825313996717347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71705815589430022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72056537337818938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5280015451785198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.811836104750558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6424674460809268</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9572713289496859</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2787914148011148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8434302905904945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0C27-6F44-AAA3-4A7066EE074C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RESULTS!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ambiguous demand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00908D"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>RESULTS!$B$22:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RESULTS!$K$27:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1833093786025877E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0C27-6F44-AAA3-4A7066EE074C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RESULTS!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ambiguous supply</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A6276F"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>RESULTS!$B$22:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RESULTS!$L$27:$L$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6036122397169509E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0C27-6F44-AAA3-4A7066EE074C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RESULTS!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unclassified</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF">
+                <a:lumMod val="65000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>RESULTS!$B$22:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Q4 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q1 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RESULTS!$M$27:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-5.5599279017261326E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.11847966190347624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.4605828147438197E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15754478448176321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36337623578495409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66649689250002508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6430173293305117</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63482629465150697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59615410957872872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57409878469277198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62272744383414391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0C27-6F44-AAA3-4A7066EE074C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="778511248"/>
+        <c:axId val="778511608"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RESULTS!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="CFCFCF">
+                  <a:lumMod val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>RESULTS!$N$27:$N$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.31703268800774193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2500758904048375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7292945410140776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7259305736432644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3129411636785804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7895400382296218</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2112301724016978</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4410113561870652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7546159216964057</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7579204288811363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3537154297891121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0C27-6F44-AAA3-4A7066EE074C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="778511248"/>
+        <c:axId val="778511608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="778511248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778511608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="778511608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0&quot;%&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="778511248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8528661218734783E-2"/>
+          <c:y val="1.7371046334754486E-2"/>
+          <c:w val="0.81759400811238958"/>
+          <c:h val="9.8171609882937397E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -14806,6 +16969,126 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17863,6 +20146,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -18142,14 +21934,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18179,43 +21971,41 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>715818</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8">
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A29E2A9-851E-CABF-0834-DFD7ACCC8FCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEBEA73A-2562-E0B2-0E47-03F0B23B0B13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="22582909" y="900545"/>
-          <a:ext cx="46182" cy="9421091"/>
+        <a:xfrm flipV="1">
+          <a:off x="21793200" y="6578600"/>
+          <a:ext cx="1054100" cy="3048000"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
+            <a:srgbClr val="F62459"/>
           </a:solidFill>
-          <a:prstDash val="lgDash"/>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -18237,44 +22027,174 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>267854</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>314036</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA649A4-0F8D-A846-98CA-E6FE4ED7C5B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>808182</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>153939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495813</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>113915</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D2C5F5-BACF-E018-7D7B-D31B52C7D1C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>821008</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>89799</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5195456" cy="333535"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1D9942-51AB-5AA9-F7CC-D3386D190140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2463028" y="17792829"/>
+          <a:ext cx="5195456" cy="333535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:spcAft>
+              <a:spcPts val="600"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="0" spc="100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
+              <a:ea typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>Positive real FCE growth rate increases persistent demand</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2328333</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>75595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2328333</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Connector 17">
+        <xdr:cNvPr id="26" name="Straight Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525EB8AD-C290-8740-B2F8-ABC6B82A1EF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4466CD7-438E-C8FE-464A-B0DB8B3609B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="24628763" y="868218"/>
-          <a:ext cx="46182" cy="9421091"/>
+        <a:xfrm>
+          <a:off x="7710714" y="13637381"/>
+          <a:ext cx="0" cy="5019524"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:prstDash val="lgDash"/>
+          <a:prstDash val="dash"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -18292,6 +22212,287 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88739</cdr:x>
+      <cdr:y>0.43931</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99266</cdr:x>
+      <cdr:y>0.53179</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEBEA73A-2562-E0B2-0E47-03F0B23B0B13}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="9207500" y="1930400"/>
+          <a:ext cx="1092200" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:srgbClr val="F62459"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.74663</cdr:x>
+      <cdr:y>0.41908</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.87515</cdr:x>
+      <cdr:y>0.50076</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79999163-A411-3EA3-1CBA-6382EACDE9BB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7747000" y="1841500"/>
+          <a:ext cx="1333500" cy="358944"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l">
+            <a:spcAft>
+              <a:spcPts val="600"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" spc="100">
+              <a:solidFill>
+                <a:srgbClr val="13A0D3"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
+              <a:ea typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>Real FCE% &gt; 0 for 6 quarters</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67124</cdr:x>
+      <cdr:y>0.60887</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99231</cdr:x>
+      <cdr:y>0.734</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 23">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1D9942-51AB-5AA9-F7CC-D3386D190140}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6722019" y="3373325"/>
+          <a:ext cx="3215409" cy="693241"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l">
+            <a:spcAft>
+              <a:spcPts val="600"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" b="0" spc="100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
+              <a:ea typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
+              <a:cs typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>Negative real FCE growth rate decreases persistent demand contribution</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009C247E-28F8-2641-9300-6C57B412618D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18672,6 +22873,448 @@
 </file>
 
 <file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="AllianzBlue">
+    <a:dk1>
+      <a:srgbClr val="003781"/>
+    </a:dk1>
+    <a:lt1>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="414141"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="CFCFCF"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="122B54"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="006192"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="007AB3"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="13A0D3"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="B5DAE6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="DFEFF2"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="003781"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="B4B4B4"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="AllianzNeoPPT Fonts">
+    <a:majorFont>
+      <a:latin typeface="Allianz Neo PPT"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Allianz Neo PPT"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Larissa">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride10.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="AllianzBlue">
+    <a:dk1>
+      <a:srgbClr val="003781"/>
+    </a:dk1>
+    <a:lt1>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="414141"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="CFCFCF"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="122B54"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="006192"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="007AB3"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="13A0D3"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="B5DAE6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="DFEFF2"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="003781"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="B4B4B4"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="AllianzNeoPPT Fonts">
+    <a:majorFont>
+      <a:latin typeface="Allianz Neo PPT"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Allianz Neo PPT"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Larissa">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride11.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:clrScheme name="AllianzBlue">
     <a:dk1>
@@ -20439,6 +25082,227 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride9.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="AllianzBlue">
+    <a:dk1>
+      <a:srgbClr val="003781"/>
+    </a:dk1>
+    <a:lt1>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="414141"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="CFCFCF"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="122B54"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="006192"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="007AB3"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="13A0D3"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="B5DAE6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="DFEFF2"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="003781"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="B4B4B4"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="AllianzNeoPPT Fonts">
+    <a:majorFont>
+      <a:latin typeface="Allianz Neo PPT"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Allianz Neo PPT"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Larissa">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D34" dT="2024-01-04T15:15:14.79" personId="{0AA30169-048C-CE43-B11C-505B6E42181C}" id="{9386E579-5F9C-DD43-B1D0-C44197EBE3F9}">
@@ -39884,8 +44748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D66936F-B6C4-5D40-AB06-FCA8CE919F76}">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -39933,28 +44797,28 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="5" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -42082,8 +46946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2754DBC1-4BD4-154D-8004-42164EE27B6C}">
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="110" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="84" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -42165,6 +47029,19 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
       <c r="L2" s="21"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
       <c r="Z2" t="s">
         <v>51</v>
       </c>
@@ -42218,6 +47095,19 @@
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="21"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
       <c r="Z3" t="s">
         <v>52</v>
       </c>
@@ -42267,11 +47157,24 @@
         <v>2908.342422293349</v>
       </c>
       <c r="J4" s="33">
-        <f t="shared" ref="J4:J36" ca="1" si="4">(E4/E3-1)*100</f>
+        <f t="shared" ref="J4:J37" ca="1" si="4">(E4/E3-1)*100</f>
         <v>0.60130933765518702</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="21"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
       <c r="Z4" t="s">
         <v>53</v>
       </c>
@@ -42330,6 +47233,19 @@
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="21"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
       <c r="Z5" t="s">
         <v>54</v>
       </c>
@@ -42391,6 +47307,19 @@
         <v>1.6953152269542748</v>
       </c>
       <c r="L6" s="21"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
       <c r="Z6" t="s">
         <v>55</v>
       </c>
@@ -42451,7 +47380,23 @@
         <f t="shared" ref="K7:K36" ca="1" si="7">(E7/E3-1)*100</f>
         <v>0.94830127059239988</v>
       </c>
-      <c r="L7" s="21"/>
+      <c r="L7" s="21">
+        <f ca="1">K7-K6</f>
+        <v>-0.74701395636187495</v>
+      </c>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
       <c r="Z7" t="s">
         <v>56</v>
       </c>
@@ -42512,7 +47457,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>0.39068877128098922</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="21">
+        <f t="shared" ref="L8:L36" ca="1" si="8">K8-K7</f>
+        <v>-0.55761249931141066</v>
+      </c>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
       <c r="Z8" t="s">
         <v>57</v>
       </c>
@@ -42573,7 +47534,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>1.5461005020615204</v>
       </c>
-      <c r="L9" s="21"/>
+      <c r="L9" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.1554117307805312</v>
+      </c>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
       <c r="Z9" t="s">
         <v>58</v>
       </c>
@@ -42634,7 +47611,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>0.77992388136174373</v>
       </c>
-      <c r="L10" s="21"/>
+      <c r="L10" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.76617662069977666</v>
+      </c>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
       <c r="Z10" t="s">
         <v>59</v>
       </c>
@@ -42695,7 +47688,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>1.5990557748464029</v>
       </c>
-      <c r="L11" s="21"/>
+      <c r="L11" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.8191318934846592</v>
+      </c>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
       <c r="Z11" t="s">
         <v>60</v>
       </c>
@@ -42756,7 +47765,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>2.4286185913845237</v>
       </c>
-      <c r="L12" s="21"/>
+      <c r="L12" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.82956281653812081</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
       <c r="Z12" t="s">
         <v>61</v>
       </c>
@@ -42817,7 +47842,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>1.6128505641612945</v>
       </c>
-      <c r="L13" s="21"/>
+      <c r="L13" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.81576802722322928</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
       <c r="Z13" t="s">
         <v>62</v>
       </c>
@@ -42878,7 +47919,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>1.5575889489028327</v>
       </c>
-      <c r="L14" s="21"/>
+      <c r="L14" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-5.5261615258461738E-2</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
       <c r="Z14" t="s">
         <v>63</v>
       </c>
@@ -42939,7 +47996,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>0.82571853470718715</v>
       </c>
-      <c r="L15" s="21"/>
+      <c r="L15" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.73187041419564558</v>
+      </c>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
       <c r="Z15" t="s">
         <v>64</v>
       </c>
@@ -43000,7 +48073,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>0.24926071029314212</v>
       </c>
-      <c r="L16" s="21"/>
+      <c r="L16" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.57645782441404503</v>
+      </c>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
       <c r="Z16" t="s">
         <v>65</v>
       </c>
@@ -43061,7 +48150,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>0.20238992617973572</v>
       </c>
-      <c r="L17" s="21"/>
+      <c r="L17" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-4.6870784113406394E-2</v>
+      </c>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
       <c r="Z17" t="s">
         <v>66</v>
       </c>
@@ -43122,7 +48227,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>0.52338652431780375</v>
       </c>
-      <c r="L18" s="21"/>
+      <c r="L18" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32099659813806802</v>
+      </c>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
       <c r="Z18" t="s">
         <v>67</v>
       </c>
@@ -43183,7 +48304,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>1.1468986357177302</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.62351211139992646</v>
+      </c>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
       <c r="Z19" t="s">
         <v>68</v>
       </c>
@@ -43244,7 +48381,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>1.0122193853682182</v>
       </c>
-      <c r="L20" s="21"/>
+      <c r="L20" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.134679250349512</v>
+      </c>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
       <c r="Z20" t="s">
         <v>69</v>
       </c>
@@ -43305,7 +48458,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>1.3709277068173931</v>
       </c>
-      <c r="L21" s="21"/>
+      <c r="L21" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.35870832144917486</v>
+      </c>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
       <c r="Z21" t="s">
         <v>70</v>
       </c>
@@ -43359,7 +48528,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>-4.799707784691865</v>
       </c>
-      <c r="L22" s="21"/>
+      <c r="L22" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-6.1706354915092581</v>
+      </c>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
       <c r="Z22" t="s">
         <v>71</v>
       </c>
@@ -43413,7 +48598,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>-16.177545394945348</v>
       </c>
-      <c r="L23" s="21"/>
+      <c r="L23" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-11.377837610253483</v>
+      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
       <c r="Z23" t="s">
         <v>72</v>
       </c>
@@ -43467,7 +48668,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>-0.54333305643230467</v>
       </c>
-      <c r="L24" s="21"/>
+      <c r="L24" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>15.634212338513043</v>
+      </c>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
       <c r="Z24" t="s">
         <v>73</v>
       </c>
@@ -43521,7 +48738,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>-6.6630060495260102</v>
       </c>
-      <c r="L25" s="21"/>
+      <c r="L25" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-6.1196729930937055</v>
+      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
       <c r="Z25" t="s">
         <v>74</v>
       </c>
@@ -43575,7 +48808,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>-1.0958890964836376</v>
       </c>
-      <c r="L26" s="21"/>
+      <c r="L26" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.5671169530423725</v>
+      </c>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
       <c r="Z26" t="s">
         <v>75</v>
       </c>
@@ -43629,7 +48878,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>12.957520263877221</v>
       </c>
-      <c r="L27" s="21"/>
+      <c r="L27" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>14.05340936036086</v>
+      </c>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
       <c r="Z27" t="s">
         <v>76</v>
       </c>
@@ -43683,7 +48948,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>1.0100072898775014</v>
       </c>
-      <c r="L28" s="21"/>
+      <c r="L28" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-11.94751297399972</v>
+      </c>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
       <c r="Z28" t="s">
         <v>77</v>
       </c>
@@ -43737,7 +49018,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>7.675948787263831</v>
       </c>
-      <c r="L29" s="21"/>
+      <c r="L29" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>6.6659414973863296</v>
+      </c>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
       <c r="Z29" t="s">
         <v>78</v>
       </c>
@@ -43791,7 +49088,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>6.0096142064826719</v>
       </c>
-      <c r="L30" s="21"/>
+      <c r="L30" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.6663345807811591</v>
+      </c>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
       <c r="Z30" t="s">
         <v>79</v>
       </c>
@@ -43845,7 +49158,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>5.8488517913484417</v>
       </c>
-      <c r="L31" s="21"/>
+      <c r="L31" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.16076241513423017</v>
+      </c>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
       <c r="Z31" t="s">
         <v>80</v>
       </c>
@@ -43899,7 +49228,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>1.1573170629364249E-2</v>
       </c>
-      <c r="L32" s="21"/>
+      <c r="L32" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-5.8372786207190774</v>
+      </c>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
       <c r="Z32" t="s">
         <v>81</v>
       </c>
@@ -43953,7 +49298,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>-0.51041463607253146</v>
       </c>
-      <c r="L33" s="21"/>
+      <c r="L33" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.52198780670189571</v>
+      </c>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
       <c r="Z33" t="s">
         <v>82</v>
       </c>
@@ -43999,7 +49360,7 @@
         <v>346461.38296265609</v>
       </c>
       <c r="I34" s="22">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">EXP(TREND($G$2:$G$21,$A$2:$A$21,A34,TRUE))</f>
         <v>3157.0538483981095</v>
       </c>
       <c r="J34" s="33">
@@ -44010,7 +49371,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>-0.69624729643489314</v>
       </c>
-      <c r="L34" s="22"/>
+      <c r="L34" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.18583266036236168</v>
+      </c>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
       <c r="Z34" t="s">
         <v>83</v>
       </c>
@@ -44041,7 +49418,7 @@
         <v>48</v>
       </c>
       <c r="C35" s="22">
-        <f t="shared" ref="C35:C36" si="8">(1+D35/100)*C34</f>
+        <f t="shared" ref="C35:C36" si="9">(1+D35/100)*C34</f>
         <v>356386.32649619994</v>
       </c>
       <c r="D35" s="25">
@@ -44067,7 +49444,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>-2.4369437217464207</v>
       </c>
-      <c r="L35" s="22"/>
+      <c r="L35" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.7406964253115276</v>
+      </c>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
       <c r="Z35" t="s">
         <v>84</v>
       </c>
@@ -44098,7 +49491,7 @@
         <v>49</v>
       </c>
       <c r="C36" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>358524.64445517713</v>
       </c>
       <c r="D36" s="25">
@@ -44124,7 +49517,23 @@
         <f t="shared" ca="1" si="7"/>
         <v>-2.9300700262495871</v>
       </c>
-      <c r="L36" s="22"/>
+      <c r="L36" s="21">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.49312630450316641</v>
+      </c>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
       <c r="Z36" t="s">
         <v>85</v>
       </c>
@@ -44148,12 +49557,21 @@
       </c>
     </row>
     <row r="37" spans="1:31">
-      <c r="J37" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="K37" s="31" t="s">
-        <v>168</v>
-      </c>
+      <c r="J37" s="33"/>
+      <c r="K37" s="31"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
       <c r="Z37" t="s">
         <v>86</v>
       </c>
@@ -44166,6 +49584,19 @@
       </c>
     </row>
     <row r="38" spans="1:31">
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
       <c r="Z38" t="s">
         <v>87</v>
       </c>
@@ -44178,6 +49609,19 @@
       </c>
     </row>
     <row r="39" spans="1:31">
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
       <c r="Z39" t="s">
         <v>88</v>
       </c>
@@ -44190,6 +49634,19 @@
       </c>
     </row>
     <row r="40" spans="1:31">
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
       <c r="Z40" t="s">
         <v>89</v>
       </c>
@@ -44202,6 +49659,19 @@
       </c>
     </row>
     <row r="41" spans="1:31">
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
       <c r="Z41" t="s">
         <v>90</v>
       </c>
@@ -44214,6 +49684,19 @@
       </c>
     </row>
     <row r="42" spans="1:31">
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
       <c r="Z42" t="s">
         <v>91</v>
       </c>
@@ -44226,6 +49709,19 @@
       </c>
     </row>
     <row r="43" spans="1:31">
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
       <c r="Z43" t="s">
         <v>92</v>
       </c>
@@ -44238,6 +49734,19 @@
       </c>
     </row>
     <row r="44" spans="1:31">
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
       <c r="Z44" t="s">
         <v>93</v>
       </c>
@@ -44250,6 +49759,19 @@
       </c>
     </row>
     <row r="45" spans="1:31">
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
       <c r="Z45" t="s">
         <v>94</v>
       </c>
@@ -44262,6 +49784,19 @@
       </c>
     </row>
     <row r="46" spans="1:31">
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
       <c r="Z46" t="s">
         <v>95</v>
       </c>
@@ -44274,6 +49809,19 @@
       </c>
     </row>
     <row r="47" spans="1:31">
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
       <c r="Z47" t="s">
         <v>96</v>
       </c>
@@ -44286,6 +49834,19 @@
       </c>
     </row>
     <row r="48" spans="1:31">
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
       <c r="Z48" t="s">
         <v>97</v>
       </c>
@@ -44298,6 +49859,19 @@
       </c>
     </row>
     <row r="49" spans="12:28">
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
       <c r="Z49" t="s">
         <v>98</v>
       </c>
@@ -44310,6 +49884,19 @@
       </c>
     </row>
     <row r="50" spans="12:28">
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
       <c r="Z50" t="s">
         <v>99</v>
       </c>
@@ -44322,6 +49909,19 @@
       </c>
     </row>
     <row r="51" spans="12:28">
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
       <c r="Z51" t="s">
         <v>100</v>
       </c>
@@ -44334,6 +49934,19 @@
       </c>
     </row>
     <row r="52" spans="12:28">
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
       <c r="Z52" t="s">
         <v>101</v>
       </c>
@@ -44346,6 +49959,19 @@
       </c>
     </row>
     <row r="53" spans="12:28">
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="34"/>
       <c r="Z53" t="s">
         <v>102</v>
       </c>
@@ -44358,6 +49984,19 @@
       </c>
     </row>
     <row r="54" spans="12:28">
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
       <c r="Z54" t="s">
         <v>103</v>
       </c>
@@ -44370,6 +50009,19 @@
       </c>
     </row>
     <row r="55" spans="12:28">
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
       <c r="Z55" t="s">
         <v>104</v>
       </c>
@@ -44382,6 +50034,19 @@
       </c>
     </row>
     <row r="56" spans="12:28">
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="34"/>
       <c r="Z56" t="s">
         <v>105</v>
       </c>
@@ -44548,7 +50213,7 @@
         <v>105.89</v>
       </c>
       <c r="AB69" s="4">
-        <f t="shared" ref="AB69:AB108" si="9">AVERAGE(AA67:AA69)</f>
+        <f t="shared" ref="AB69:AB108" si="10">AVERAGE(AA67:AA69)</f>
         <v>105.82666666666667</v>
       </c>
     </row>
@@ -44560,7 +50225,7 @@
         <v>105.3</v>
       </c>
       <c r="AB70" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>105.73333333333333</v>
       </c>
     </row>
@@ -44572,7 +50237,7 @@
         <v>105.27</v>
       </c>
       <c r="AB71" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>105.48666666666666</v>
       </c>
     </row>
@@ -44584,7 +50249,7 @@
         <v>105.5</v>
       </c>
       <c r="AB72" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>105.35666666666667</v>
       </c>
     </row>
@@ -44596,7 +50261,7 @@
         <v>105.75</v>
       </c>
       <c r="AB73" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>105.50666666666666</v>
       </c>
     </row>
@@ -44608,7 +50273,7 @@
         <v>106.03</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>105.75999999999999</v>
       </c>
     </row>
@@ -44620,7 +50285,7 @@
         <v>106.07</v>
       </c>
       <c r="AB75" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>105.95</v>
       </c>
     </row>
@@ -44632,7 +50297,7 @@
         <v>106.8</v>
       </c>
       <c r="AB76" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>106.3</v>
       </c>
     </row>
@@ -44644,7 +50309,7 @@
         <v>107.02</v>
       </c>
       <c r="AB77" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>106.63</v>
       </c>
     </row>
@@ -44656,7 +50321,7 @@
         <v>107.38</v>
       </c>
       <c r="AB78" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>107.06666666666666</v>
       </c>
     </row>
@@ -44668,7 +50333,7 @@
         <v>107.57</v>
       </c>
       <c r="AB79" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>107.32333333333332</v>
       </c>
     </row>
@@ -44680,7 +50345,7 @@
         <v>107.64</v>
       </c>
       <c r="AB80" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>107.52999999999999</v>
       </c>
     </row>
@@ -44692,7 +50357,7 @@
         <v>108.38</v>
       </c>
       <c r="AB81" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>107.86333333333333</v>
       </c>
     </row>
@@ -44704,7 +50369,7 @@
         <v>108.16</v>
       </c>
       <c r="AB82" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>108.05999999999999</v>
       </c>
     </row>
@@ -44716,7 +50381,7 @@
         <v>108.64</v>
       </c>
       <c r="AB83" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>108.39333333333333</v>
       </c>
     </row>
@@ -44728,7 +50393,7 @@
         <v>109.09</v>
       </c>
       <c r="AB84" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>108.63</v>
       </c>
     </row>
@@ -44743,7 +50408,7 @@
         <v>109.34</v>
       </c>
       <c r="AB85" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>109.02333333333335</v>
       </c>
     </row>
@@ -44755,7 +50420,7 @@
         <v>109.51</v>
       </c>
       <c r="AB86" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>109.31333333333333</v>
       </c>
     </row>
@@ -44767,7 +50432,7 @@
         <v>110.49</v>
       </c>
       <c r="AB87" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>109.78000000000002</v>
       </c>
     </row>
@@ -44779,7 +50444,7 @@
         <v>112.26</v>
       </c>
       <c r="AB88" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>110.75333333333333</v>
       </c>
     </row>
@@ -44791,7 +50456,7 @@
         <v>112.78</v>
       </c>
       <c r="AB89" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>111.84333333333332</v>
       </c>
     </row>
@@ -44803,7 +50468,7 @@
         <v>113.63</v>
       </c>
       <c r="AB90" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>112.89</v>
       </c>
     </row>
@@ -44815,7 +50480,7 @@
         <v>114.6</v>
       </c>
       <c r="AB91" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>113.67</v>
       </c>
     </row>
@@ -44827,7 +50492,7 @@
         <v>114.94</v>
       </c>
       <c r="AB92" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>114.38999999999999</v>
       </c>
     </row>
@@ -44839,7 +50504,7 @@
         <v>115.49</v>
       </c>
       <c r="AB93" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>115.00999999999999</v>
       </c>
     </row>
@@ -44851,7 +50516,7 @@
         <v>114.9</v>
       </c>
       <c r="AB94" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>115.11000000000001</v>
       </c>
     </row>
@@ -44863,7 +50528,7 @@
         <v>116.32</v>
       </c>
       <c r="AB95" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>115.57</v>
       </c>
     </row>
@@ -44875,7 +50540,7 @@
         <v>116.81</v>
       </c>
       <c r="AB96" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>116.00999999999999</v>
       </c>
     </row>
@@ -44887,7 +50552,7 @@
         <v>116.7</v>
       </c>
       <c r="AB97" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>116.61</v>
       </c>
     </row>
@@ -44899,7 +50564,7 @@
         <v>117.22</v>
       </c>
       <c r="AB98" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>116.91000000000001</v>
       </c>
     </row>
@@ -44911,7 +50576,7 @@
         <v>118.55</v>
       </c>
       <c r="AB99" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>117.49000000000001</v>
       </c>
     </row>
@@ -44923,7 +50588,7 @@
         <v>119.76</v>
       </c>
       <c r="AB100" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>118.50999999999999</v>
       </c>
     </row>
@@ -44935,7 +50600,7 @@
         <v>120.55</v>
       </c>
       <c r="AB101" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>119.62</v>
       </c>
     </row>
@@ -44947,7 +50612,7 @@
         <v>120.46</v>
       </c>
       <c r="AB102" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>120.25666666666666</v>
       </c>
     </row>
@@ -44959,7 +50624,7 @@
         <v>120.71</v>
       </c>
       <c r="AB103" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>120.57333333333332</v>
       </c>
     </row>
@@ -44971,7 +50636,7 @@
         <v>120.77</v>
       </c>
       <c r="AB104" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>120.64666666666666</v>
       </c>
     </row>
@@ -44983,7 +50648,7 @@
         <v>122.1</v>
       </c>
       <c r="AB105" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>121.19333333333333</v>
       </c>
     </row>
@@ -44995,7 +50660,7 @@
         <v>121.4</v>
       </c>
       <c r="AB106" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>121.42333333333333</v>
       </c>
     </row>
@@ -45007,7 +50672,7 @@
         <v>121.61</v>
       </c>
       <c r="AB107" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>121.70333333333333</v>
       </c>
     </row>
@@ -45019,7 +50684,7 @@
         <v>121.27</v>
       </c>
       <c r="AB108" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>121.42666666666666</v>
       </c>
     </row>
@@ -45032,4 +50697,149 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8AC71A-A5FF-6B40-AB9A-73AC100F0BF5}">
+  <dimension ref="B2:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5.5671169530423725</v>
+      </c>
+      <c r="D3">
+        <v>0.26920207073922447</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4">
+        <v>14.05340936036086</v>
+      </c>
+      <c r="D4">
+        <v>0.71610863399253388</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-11.94751297399972</v>
+      </c>
+      <c r="D5">
+        <v>0.80306504696439818</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.6659414973863296</v>
+      </c>
+      <c r="D6">
+        <v>1.0924494268839047</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-1.6663345807811591</v>
+      </c>
+      <c r="D7">
+        <v>1.2823660429210453</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-0.16076241513423017</v>
+      </c>
+      <c r="D8">
+        <v>1.3074713175370072</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-5.8372786207190774</v>
+      </c>
+      <c r="D9">
+        <v>1.4705810085633988</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-0.52198780670189571</v>
+      </c>
+      <c r="D10">
+        <v>1.2114624292043124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-0.18583266036236168</v>
+      </c>
+      <c r="D11">
+        <v>0.91789795200865854</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-1.7406964253115276</v>
+      </c>
+      <c r="D12">
+        <v>0.45114750010520194</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-0.49312630450316641</v>
+      </c>
+      <c r="D13">
+        <v>0.15058840923030808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/main/data/Classification_perso.xlsx
+++ b/main/data/Classification_perso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/SVAR3A/main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3DF10A-05A5-AE44-832C-09B7F6416B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007901BB-80E0-4B41-A5EC-C78AFE3FD71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -21,37 +21,38 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">RESULTS!$G$22:$G$37</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">RESULTS!$H$22:$H$37</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$3:$D$13</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$3:$B$13</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$3:$C$13</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$D$3:$D$13</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$3:$B$13</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$3:$C$13</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">RESULTS!$I$22:$I$37</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$D$3:$D$13</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$3:$B$13</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$3:$C$13</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$D$3:$D$13</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$3:$B$13</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$C$3:$C$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">RESULTS!$J$22:$J$37</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$D$3:$D$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">RESULTS!$K$22:$K$37</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">RESULTS!$L$22:$L$37</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">RESULTS!$M$22:$M$37</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$3:$B$13</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$3:$C$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">RESULTS!$G$22:$G$37</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$3:$C$13</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$D$3:$D$13</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$3:$B$13</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$3:$C$13</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$D$3:$D$13</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$3:$B$13</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">RESULTS!$H$22:$H$37</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$3:$C$13</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$3:$D$13</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$3:$B$13</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$C$3:$C$13</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$D$3:$D$13</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$3:$B$13</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">RESULTS!$I$22:$I$37</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$3:$C$13</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$D$3:$D$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">RESULTS!$J$22:$J$37</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">RESULTS!$K$22:$K$37</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">RESULTS!$L$22:$L$37</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">RESULTS!$M$22:$M$37</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$3:$B$13</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="178">
   <si>
     <t>dem_pers</t>
   </si>
@@ -641,6 +642,12 @@
   <si>
     <t>QoQ difference of Real FCE of households growth (%)</t>
   </si>
+  <si>
+    <t>Real FCE of households growth (%YoY)</t>
+  </si>
+  <si>
+    <t>Persistent demand (RHS)</t>
+  </si>
 </sst>
 </file>
 
@@ -7506,6 +7513,569 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9753141784429272E-2"/>
+          <c:y val="0.10595854828491266"/>
+          <c:w val="0.91482087917818222"/>
+          <c:h val="0.83197623456790104"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Persistent demand (RHS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$18:$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9.952794014365092E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1404954961877421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17331451374731036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26920207073922447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71610863399253388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80306504696439818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0924494268839047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2823660429210453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3074713175370072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4705810085633988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2114624292043124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91789795200865854</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45114750010520194</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15058840923030808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F92-494C-A275-F3056106B207}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1333020160"/>
+        <c:axId val="1333700064"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real FCE of households growth (%YoY)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="003781"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$18:$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Q2 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q3 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q4 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q1 2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q2 2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q3 2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q4 2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q1 2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q2 2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q3 2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q4 2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q1 2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q2 2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q3 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$18:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-16.177545394945348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.54333305643230467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.6630060495260102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0958890964836376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.957520263877221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0100072898775014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.675948787263831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0096142064826719</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8488517913484417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1573170629364249E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.51041463607253146</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.69624729643489314</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.4369437217464207</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.9300700262495871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8F92-494C-A275-F3056106B207}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="24644775"/>
+        <c:axId val="24649815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="24644775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="122B54">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24649815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="24649815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0&quot;%&quot;\ ;[Red]\-#,##0&quot;%&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24644775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1333700064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0&quot;%&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1333020160"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1333020160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1333700064"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2159276216300777"/>
+          <c:y val="3.1550366549009008E-4"/>
+          <c:w val="0.56900297231058039"/>
+          <c:h val="5.6623223821160286E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId4"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -15134,7 +15704,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00908D"/>
+                <a:srgbClr val="003781"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -15438,7 +16008,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0_ ;[Red]\-#,##0\ " sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0&quot;%&quot;\ ;[Red]\-#,##0&quot;%&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15551,7 +16121,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId4"/>
 </c:chartSpace>
 </file>
 
@@ -15843,648 +16412,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RESULTS!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Persistent supply</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="A52A2A"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>RESULTS!$B$22:$B$37</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Q4 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q1 2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q2 2020</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q3 2020</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Q4 2020</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Q1 2021</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q2 2021</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q3 2021</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q4 2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q1 2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q2 2022</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q3 2022</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q4 2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q1 2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q2 2023</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Q3 2023</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RESULTS!$H$27:$H$37</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.23429461618830119</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11335367597020496</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.2730296615018093E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18898819478052842</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.9339008205269044E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.8122368663945803E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.61221178256263042</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.82628802081054209</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94438348943452521</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.368503092051748</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.98562245568456974</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0C27-6F44-AAA3-4A7066EE074C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RESULTS!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Transitory supply</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFA500"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>RESULTS!$B$22:$B$37</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Q4 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q1 2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q2 2020</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q3 2020</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Q4 2020</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Q1 2021</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q2 2021</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q3 2021</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q4 2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q1 2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q2 2022</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q3 2022</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q4 2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q1 2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q2 2023</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Q3 2023</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RESULTS!$J$27:$J$37</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.53143489826335033</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45761801193306523</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43825313996717347</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71705815589430022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72056537337818938</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5280015451785198</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.811836104750558</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6424674460809268</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9572713289496859</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2787914148011148</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.8434302905904945</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0C27-6F44-AAA3-4A7066EE074C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RESULTS!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ambiguous demand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00908D"/>
-            </a:solidFill>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>RESULTS!$B$22:$B$37</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Q4 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q1 2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q2 2020</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q3 2020</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Q4 2020</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Q1 2021</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q2 2021</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q3 2021</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q4 2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q1 2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q2 2022</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q3 2022</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q4 2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q1 2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q2 2023</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Q3 2023</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RESULTS!$K$27:$K$37</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1833093786025877E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0C27-6F44-AAA3-4A7066EE074C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RESULTS!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ambiguous supply</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="A6276F"/>
-            </a:solidFill>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>RESULTS!$B$22:$B$37</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Q4 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q1 2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q2 2020</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q3 2020</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Q4 2020</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Q1 2021</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q2 2021</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q3 2021</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q4 2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q1 2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q2 2022</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q3 2022</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q4 2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q1 2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q2 2023</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Q3 2023</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RESULTS!$L$27:$L$37</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6036122397169509E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0C27-6F44-AAA3-4A7066EE074C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RESULTS!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unclassified</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF">
-                <a:lumMod val="65000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>RESULTS!$B$22:$B$37</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Q4 2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q1 2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q2 2020</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q3 2020</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Q4 2020</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Q1 2021</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q2 2021</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q3 2021</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q4 2021</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q1 2022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q2 2022</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q3 2022</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q4 2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Q1 2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Q2 2023</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Q3 2023</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RESULTS!$M$27:$M$37</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-5.5599279017261326E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.11847966190347624</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.4605828147438197E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15754478448176321</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.36337623578495409</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.66649689250002508</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6430173293305117</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.63482629465150697</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.59615410957872872</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.57409878469277198</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.62272744383414391</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-0C27-6F44-AAA3-4A7066EE074C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -16498,99 +16425,6 @@
         <c:axId val="778511248"/>
         <c:axId val="778511608"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RESULTS!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="CFCFCF">
-                  <a:lumMod val="10000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>RESULTS!$N$27:$N$37</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.31703268800774193</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2500758904048375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7292945410140776</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7259305736432644</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3129411636785804</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7895400382296218</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2112301724016978</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.4410113561870652</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.7546159216964057</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.7579204288811363</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.3537154297891121</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-0C27-6F44-AAA3-4A7066EE074C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="778511248"/>
-        <c:axId val="778511608"/>
-      </c:lineChart>
       <c:catAx>
         <c:axId val="778511248"/>
         <c:scaling>
@@ -16652,7 +16486,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0&quot;%&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0&quot;%&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -16769,6 +16603,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17129,6 +17003,509 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21970,63 +22347,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEBEA73A-2562-E0B2-0E47-03F0B23B0B13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="21793200" y="6578600"/>
-          <a:ext cx="1054100" cy="3048000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="F62459"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
@@ -22221,118 +22541,6 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.88739</cdr:x>
-      <cdr:y>0.43931</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99266</cdr:x>
-      <cdr:y>0.53179</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="2" name="Straight Arrow Connector 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEBEA73A-2562-E0B2-0E47-03F0B23B0B13}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="9207500" y="1930400"/>
-          <a:ext cx="1092200" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:solidFill>
-            <a:srgbClr val="F62459"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.74663</cdr:x>
-      <cdr:y>0.41908</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.87515</cdr:x>
-      <cdr:y>0.50076</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79999163-A411-3EA3-1CBA-6382EACDE9BB}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7747000" y="1841500"/>
-          <a:ext cx="1333500" cy="358944"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l">
-            <a:spcAft>
-              <a:spcPts val="600"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="0" i="0" spc="100">
-              <a:solidFill>
-                <a:srgbClr val="13A0D3"/>
-              </a:solidFill>
-              <a:latin typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
-              <a:ea typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
-              <a:cs typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
-            </a:rPr>
-            <a:t>Real FCE% &gt; 0 for 6 quarters</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
       <cdr:x>0.67124</cdr:x>
       <cdr:y>0.60887</cdr:y>
     </cdr:from>
@@ -22455,7 +22663,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22495,7 +22703,367 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B50663-4964-E949-A90A-C21FA13E9998}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="240515"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C1513C3-6C96-6A42-AC92-4726103F9DAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17919700" y="6184900"/>
+          <a:ext cx="65" cy="240515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:spcAft>
+              <a:spcPts val="600"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1510" b="1" spc="100">
+            <a:solidFill>
+              <a:srgbClr val="13A0D3"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="673100" cy="240515"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FDC131-7075-1720-208E-D5CB5607F5CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5270500" y="6261100"/>
+          <a:ext cx="673100" cy="240515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="600"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1510" b="1" spc="100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="673100" cy="240515"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705446D0-C5CE-FF4B-9CA5-DA5A2AAD5A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="6261100"/>
+          <a:ext cx="673100" cy="240515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="600"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1510" b="1" spc="100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="673100" cy="240515"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBBF8D7-636F-A341-96F1-23457E9AEED8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11874500" y="6261100"/>
+          <a:ext cx="673100" cy="240515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="600"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1510" b="1" spc="100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(3)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.30331</cdr:x>
+      <cdr:y>0.06437</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.30331</cdr:x>
+      <cdr:y>0.94023</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61EEFF2-B01A-D1AE-F397-D0F7CC1E81CC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="2908300" y="355600"/>
+          <a:ext cx="0" cy="4838700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69934</cdr:x>
+      <cdr:y>0.05977</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.69934</cdr:x>
+      <cdr:y>0.93563</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF0259A-DF61-C194-B5DB-B87A35C4131C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="6705600" y="330200"/>
+          <a:ext cx="0" cy="4838700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23315,6 +23883,227 @@
 </file>
 
 <file path=xl/theme/themeOverride11.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="AllianzBlue">
+    <a:dk1>
+      <a:srgbClr val="003781"/>
+    </a:dk1>
+    <a:lt1>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="414141"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="CFCFCF"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="122B54"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="006192"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="007AB3"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="13A0D3"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="B5DAE6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="DFEFF2"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="003781"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="B4B4B4"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="AllianzNeoPPT Fonts">
+    <a:majorFont>
+      <a:latin typeface="Allianz Neo PPT"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Allianz Neo PPT"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Larissa">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride12.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:clrScheme name="AllianzBlue">
     <a:dk1>
@@ -44749,7 +45538,7 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B22" sqref="B22:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -46946,8 +47735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2754DBC1-4BD4-154D-8004-42164EE27B6C}">
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="84" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView topLeftCell="I20" workbookViewId="0">
+      <selection activeCell="AB39" sqref="AB39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -50701,10 +51490,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8AC71A-A5FF-6B40-AB9A-73AC100F0BF5}">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -50838,6 +51627,190 @@
         <v>0.15058840923030808</v>
       </c>
     </row>
+    <row r="15" spans="2:4">
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>1.1894010128107653E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.3709277068173931</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>7.8942528863960651E-2</v>
+      </c>
+      <c r="D17">
+        <v>-4.799707784691865</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>9.952794014365092E-2</v>
+      </c>
+      <c r="D18">
+        <v>-16.177545394945348</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>0.1404954961877421</v>
+      </c>
+      <c r="D19">
+        <v>-0.54333305643230467</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>0.17331451374731036</v>
+      </c>
+      <c r="D20">
+        <v>-6.6630060495260102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>0.26920207073922447</v>
+      </c>
+      <c r="D21">
+        <v>-1.0958890964836376</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>0.71610863399253388</v>
+      </c>
+      <c r="D22">
+        <v>12.957520263877221</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23">
+        <v>0.80306504696439818</v>
+      </c>
+      <c r="D23">
+        <v>1.0100072898775014</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <v>1.0924494268839047</v>
+      </c>
+      <c r="D24">
+        <v>7.675948787263831</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>1.2823660429210453</v>
+      </c>
+      <c r="D25">
+        <v>6.0096142064826719</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>1.3074713175370072</v>
+      </c>
+      <c r="D26">
+        <v>5.8488517913484417</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>1.4705810085633988</v>
+      </c>
+      <c r="D27">
+        <v>1.1573170629364249E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>1.2114624292043124</v>
+      </c>
+      <c r="D28">
+        <v>-0.51041463607253146</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29">
+        <v>0.91789795200865854</v>
+      </c>
+      <c r="D29">
+        <v>-0.69624729643489314</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>0.45114750010520194</v>
+      </c>
+      <c r="D30">
+        <v>-2.4369437217464207</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>0.15058840923030808</v>
+      </c>
+      <c r="D31">
+        <v>-2.9300700262495871</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/main/data/Classification_perso.xlsx
+++ b/main/data/Classification_perso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/SVAR3A/main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007901BB-80E0-4B41-A5EC-C78AFE3FD71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDF362C-D358-2544-B1DC-3A15954B06F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,41 +19,6 @@
     <sheet name="HH_CONS_EXP" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">RESULTS!$G$22:$G$37</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">RESULTS!$G$22:$G$37</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$3:$C$13</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$D$3:$D$13</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$3:$B$13</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$3:$C$13</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$D$3:$D$13</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$3:$B$13</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">RESULTS!$H$22:$H$37</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$3:$C$13</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$3:$D$13</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$3:$B$13</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$C$3:$C$13</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$D$3:$D$13</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$3:$B$13</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">RESULTS!$I$22:$I$37</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$C$3:$C$13</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$D$3:$D$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">RESULTS!$J$22:$J$37</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">RESULTS!$K$22:$K$37</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">RESULTS!$L$22:$L$37</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">RESULTS!$M$22:$M$37</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$3:$B$13</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -646,7 +611,7 @@
     <t>Real FCE of households growth (%YoY)</t>
   </si>
   <si>
-    <t>Persistent demand (RHS)</t>
+    <t>Persistent demand - YoY inflation (RHS)</t>
   </si>
 </sst>
 </file>
@@ -7424,6 +7389,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1876389696"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7554,14 +7520,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Persistent demand (RHS)</c:v>
+                  <c:v>Persistent demand - YoY inflation (RHS)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
+              <a:srgbClr val="00908D"/>
             </a:solidFill>
             <a:ln w="19050">
               <a:noFill/>
@@ -7569,51 +7535,90 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkUpDiag">
+                <a:fgClr>
+                  <a:srgbClr val="00908D"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-71B2-034B-BBF8-73FB656B4693}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkUpDiag">
+                <a:fgClr>
+                  <a:srgbClr val="00908D"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-71B2-034B-BBF8-73FB656B4693}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$18:$B$31</c:f>
+              <c:f>Sheet1!$B$21:$B$31</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>Q2 2020</c:v>
+                  <c:v>Q1 2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q3 2020</c:v>
+                  <c:v>Q2 2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q4 2020</c:v>
+                  <c:v>Q3 2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q1 2021</c:v>
+                  <c:v>Q4 2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q2 2021</c:v>
+                  <c:v>Q1 2022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q3 2021</c:v>
+                  <c:v>Q2 2022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q4 2021</c:v>
+                  <c:v>Q3 2022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q1 2022</c:v>
+                  <c:v>Q4 2022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q2 2022</c:v>
+                  <c:v>Q1 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q3 2022</c:v>
+                  <c:v>Q2 2023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q4 2022</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q1 2023</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q2 2023</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>Q3 2023</c:v>
                 </c:pt>
               </c:strCache>
@@ -7621,50 +7626,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$C$31</c:f>
+              <c:f>Sheet1!$C$21:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.952794014365092E-2</c:v>
+                  <c:v>0.26920207073922447</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1404954961877421</c:v>
+                  <c:v>0.71610863399253388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17331451374731036</c:v>
+                  <c:v>0.80306504696439818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26920207073922447</c:v>
+                  <c:v>1.0924494268839047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71610863399253388</c:v>
+                  <c:v>1.2823660429210453</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80306504696439818</c:v>
+                  <c:v>1.3074713175370072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0924494268839047</c:v>
+                  <c:v>1.4705810085633988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2823660429210453</c:v>
+                  <c:v>1.2114624292043124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3074713175370072</c:v>
+                  <c:v>0.91789795200865854</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4705810085633988</c:v>
+                  <c:v>0.45114750010520194</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2114624292043124</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.91789795200865854</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.45114750010520194</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.15058840923030808</c:v>
                 </c:pt>
               </c:numCache>
@@ -7708,7 +7704,9 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="003781"/>
+                <a:srgbClr val="CFCFCF">
+                  <a:lumMod val="10000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7719,49 +7717,40 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$18:$B$31</c:f>
+              <c:f>Sheet1!$B$21:$B$31</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>Q2 2020</c:v>
+                  <c:v>Q1 2021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q3 2020</c:v>
+                  <c:v>Q2 2021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q4 2020</c:v>
+                  <c:v>Q3 2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q1 2021</c:v>
+                  <c:v>Q4 2021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q2 2021</c:v>
+                  <c:v>Q1 2022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q3 2021</c:v>
+                  <c:v>Q2 2022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q4 2021</c:v>
+                  <c:v>Q3 2022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q1 2022</c:v>
+                  <c:v>Q4 2022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q2 2022</c:v>
+                  <c:v>Q1 2023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q3 2022</c:v>
+                  <c:v>Q2 2023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q4 2022</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q1 2023</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q2 2023</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>Q3 2023</c:v>
                 </c:pt>
               </c:strCache>
@@ -7769,50 +7758,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$31</c:f>
+              <c:f>Sheet1!$D$21:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-16.177545394945348</c:v>
+                  <c:v>-1.0958890964836376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.54333305643230467</c:v>
+                  <c:v>12.957520263877221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.6630060495260102</c:v>
+                  <c:v>1.0100072898775014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0958890964836376</c:v>
+                  <c:v>7.675948787263831</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.957520263877221</c:v>
+                  <c:v>6.0096142064826719</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0100072898775014</c:v>
+                  <c:v>5.8488517913484417</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.675948787263831</c:v>
+                  <c:v>1.1573170629364249E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0096142064826719</c:v>
+                  <c:v>-0.51041463607253146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8488517913484417</c:v>
+                  <c:v>-0.69624729643489314</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1573170629364249E-2</c:v>
+                  <c:v>-2.4369437217464207</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.51041463607253146</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.69624729643489314</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.4369437217464207</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>-2.9300700262495871</c:v>
                 </c:pt>
               </c:numCache>
@@ -7853,9 +7833,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="122B54">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
+              <a:srgbClr val="FFFFFF">
+                <a:lumMod val="50000"/>
               </a:srgbClr>
             </a:solidFill>
             <a:prstDash val="sysDot"/>
@@ -7870,7 +7849,7 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7904,13 +7883,17 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="#,##0&quot;%&quot;\ ;[Red]\-#,##0&quot;%&quot;" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="CFCFCF">
+                <a:lumMod val="10000"/>
+              </a:srgbClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7921,7 +7904,7 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7949,7 +7932,11 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="CFCFCF">
+                <a:lumMod val="10000"/>
+              </a:srgbClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7960,7 +7947,7 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7986,6 +7973,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1333700064"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8006,7 +7994,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.2159276216300777"/>
-          <c:y val="3.1550366549009008E-4"/>
+          <c:y val="1.1809756539053307E-2"/>
           <c:w val="0.56900297231058039"/>
           <c:h val="5.6623223821160286E-2"/>
         </c:manualLayout>
@@ -8026,7 +8014,7 @@
           <a:pPr>
             <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -8059,7 +8047,7 @@
       <a:pPr>
         <a:defRPr sz="1000">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
           <a:latin typeface="Allianz Neo" panose="020B0504020203020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
@@ -22790,168 +22778,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="673100" cy="240515"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FDC131-7075-1720-208E-D5CB5607F5CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5270500" y="6261100"/>
-          <a:ext cx="673100" cy="240515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:spcAft>
-              <a:spcPts val="600"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1510" b="1" spc="100">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(1)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="673100" cy="240515"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705446D0-C5CE-FF4B-9CA5-DA5A2AAD5A92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="6261100"/>
-          <a:ext cx="673100" cy="240515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:spcAft>
-              <a:spcPts val="600"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1510" b="1" spc="100">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(2)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="673100" cy="240515"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBBF8D7-636F-A341-96F1-23457E9AEED8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11874500" y="6261100"/>
-          <a:ext cx="673100" cy="240515"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:spcAft>
-              <a:spcPts val="600"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1510" b="1" spc="100">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(3)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22959,64 +22785,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.30331</cdr:x>
-      <cdr:y>0.06437</cdr:y>
+      <cdr:x>0.62782</cdr:x>
+      <cdr:y>0.09195</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.30331</cdr:x>
-      <cdr:y>0.94023</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61EEFF2-B01A-D1AE-F397-D0F7CC1E81CC}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="2908300" y="355600"/>
-          <a:ext cx="0" cy="4838700"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.69934</cdr:x>
-      <cdr:y>0.05977</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.69934</cdr:x>
+      <cdr:x>0.62782</cdr:x>
       <cdr:y>0.93563</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -23032,8 +22805,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="6705600" y="330200"/>
-          <a:ext cx="0" cy="4838700"/>
+          <a:off x="6019822" y="508000"/>
+          <a:ext cx="0" cy="4660888"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -47735,8 +47508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2754DBC1-4BD4-154D-8004-42164EE27B6C}">
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView topLeftCell="I20" workbookViewId="0">
-      <selection activeCell="AB39" sqref="AB39"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -47946,7 +47719,7 @@
         <v>2908.342422293349</v>
       </c>
       <c r="J4" s="33">
-        <f t="shared" ref="J4:J37" ca="1" si="4">(E4/E3-1)*100</f>
+        <f t="shared" ref="J4:J36" ca="1" si="4">(E4/E3-1)*100</f>
         <v>0.60130933765518702</v>
       </c>
       <c r="K4" s="33"/>
@@ -51490,10 +51263,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8AC71A-A5FF-6B40-AB9A-73AC100F0BF5}">
-  <dimension ref="B2:D31"/>
+  <dimension ref="B2:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -51646,7 +51419,7 @@
         <v>1.3709277068173931</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:17">
       <c r="B17" t="s">
         <v>35</v>
       </c>
@@ -51657,7 +51430,7 @@
         <v>-4.799707784691865</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:17">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -51668,7 +51441,7 @@
         <v>-16.177545394945348</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:17">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -51679,7 +51452,7 @@
         <v>-0.54333305643230467</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:17">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -51690,7 +51463,7 @@
         <v>-6.6630060495260102</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:17">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -51701,7 +51474,7 @@
         <v>-1.0958890964836376</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:17">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -51712,7 +51485,7 @@
         <v>12.957520263877221</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:17">
       <c r="B23" t="s">
         <v>41</v>
       </c>
@@ -51723,7 +51496,7 @@
         <v>1.0100072898775014</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:17">
       <c r="B24" t="s">
         <v>42</v>
       </c>
@@ -51734,7 +51507,7 @@
         <v>7.675948787263831</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:17">
       <c r="B25" t="s">
         <v>43</v>
       </c>
@@ -51745,7 +51518,7 @@
         <v>6.0096142064826719</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:17">
       <c r="B26" t="s">
         <v>44</v>
       </c>
@@ -51756,7 +51529,7 @@
         <v>5.8488517913484417</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:17">
       <c r="B27" t="s">
         <v>45</v>
       </c>
@@ -51767,7 +51540,7 @@
         <v>1.1573170629364249E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:17">
       <c r="B28" t="s">
         <v>46</v>
       </c>
@@ -51778,7 +51551,7 @@
         <v>-0.51041463607253146</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:17">
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -51789,7 +51562,7 @@
         <v>-0.69624729643489314</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:17">
       <c r="B30" t="s">
         <v>48</v>
       </c>
@@ -51800,7 +51573,7 @@
         <v>-2.4369437217464207</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:17">
       <c r="B31" t="s">
         <v>49</v>
       </c>
@@ -51810,6 +51583,454 @@
       <c r="D31">
         <v>-2.9300700262495871</v>
       </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+    </row>
+    <row r="33" spans="5:17">
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+    </row>
+    <row r="34" spans="5:17">
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+    </row>
+    <row r="35" spans="5:17">
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+    </row>
+    <row r="36" spans="5:17">
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+    </row>
+    <row r="37" spans="5:17">
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+    </row>
+    <row r="38" spans="5:17">
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+    </row>
+    <row r="39" spans="5:17">
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+    </row>
+    <row r="40" spans="5:17">
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+    </row>
+    <row r="41" spans="5:17">
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+    </row>
+    <row r="42" spans="5:17">
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+    </row>
+    <row r="43" spans="5:17">
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+    </row>
+    <row r="44" spans="5:17">
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+    </row>
+    <row r="45" spans="5:17">
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+    </row>
+    <row r="46" spans="5:17">
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+    </row>
+    <row r="47" spans="5:17">
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+    </row>
+    <row r="48" spans="5:17">
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+    </row>
+    <row r="49" spans="5:17">
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+    </row>
+    <row r="50" spans="5:17">
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+    </row>
+    <row r="51" spans="5:17">
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+    </row>
+    <row r="52" spans="5:17">
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+    </row>
+    <row r="53" spans="5:17">
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+    </row>
+    <row r="54" spans="5:17">
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+    </row>
+    <row r="55" spans="5:17">
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+    </row>
+    <row r="56" spans="5:17">
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+    </row>
+    <row r="57" spans="5:17">
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+    </row>
+    <row r="58" spans="5:17">
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+    </row>
+    <row r="59" spans="5:17">
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+    </row>
+    <row r="60" spans="5:17">
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
